--- a/Data/SIC07 Industry (2) SIC2007 Table 4.7a   Annual pay - Gross 2016.xlsx
+++ b/Data/SIC07 Industry (2) SIC2007 Table 4.7a   Annual pay - Gross 2016.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3567890\Documents\Uni\Year 2\Semester 2\Data Visualisation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3567890\Documents\Uni\Year 2\Semester 2\Data Visualisation\DALT7016_Data_Visualisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D65F7F-81A2-4271-9147-9F8AA4F1342B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCDE029-BC74-4905-878A-17ED4EB58AFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="933"/>
   </bookViews>

--- a/Data/SIC07 Industry (2) SIC2007 Table 4.7a   Annual pay - Gross 2016.xlsx
+++ b/Data/SIC07 Industry (2) SIC2007 Table 4.7a   Annual pay - Gross 2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3567890\Documents\Uni\Year 2\Semester 2\Data Visualisation\DALT7016_Data_Visualisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCDE029-BC74-4905-878A-17ED4EB58AFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7468D4-746B-4A56-9486-50F634395ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="933"/>
+    <workbookView xWindow="5115" yWindow="990" windowWidth="15375" windowHeight="7875" tabRatio="933"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="24" r:id="rId1"/>
